--- a/P0100/09_FICHAS/N3-FD-General.xlsx
+++ b/P0100/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0100/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BF8BF8-7DA7-4532-B798-767AE8E0BA8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20250" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,16 +84,202 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0100</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>CoberturaTierra2018</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Coberturas2018/CoberturaTierra2018.gdb</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica presenta la cobertura de la tierra para el año 2018 de la región de la Mojana y parte del departamento de Córdoba según la metodología CORINE </t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>Feature class</t>
+  </si>
+  <si>
+    <t>SUELOS</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>En la columna 3 se encuentra el código que indica el tipo de cobertura según la metodología CORINE</t>
+  </si>
+  <si>
+    <t>Cobertura, CORINE, 2018</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Inunda1988</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda1988.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 1988 en la región de La Mojana. La información en la capa de atributos incluye el área del espejo de agua en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area) y el evento de emergencia, que para todos los casos es "inundación”.</t>
+  </si>
+  <si>
+    <t>MEDIO ABIÓTICO</t>
+  </si>
+  <si>
+    <t>En la columna 4 se encuentra el área de los espejos de agua</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 1988, espejo de agua</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>CoberturaTierra2020</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Coberturas2020/CoberturaTierra2020.gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La capa cartográfica presenta la cobertura de la tierra para el año 2020 de la región de la Mojana y parte del departamento de Córdoba según la metodología CORINE </t>
+  </si>
+  <si>
+    <t>En la columna 3 se encuentra el código que indica el tipo de cobertura según la metodología CORINE y en la columna 4 la leyenda</t>
+  </si>
+  <si>
+    <t>Cobertura, CORINE, 2020</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>Inunda2000</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda2000.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 2000 en la región de La Mojana. La información en la tabla de atributos incluye el área del espejo de agua en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area) y el evento de emergencia, que para todos los casos es "inundación”.</t>
+  </si>
+  <si>
+    <t>Variable:Espejo de agua</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 2000, espejo de agua, área de inundación</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>Inunda2011</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda2011.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 2011 en la región de La Mojana. La información en la tabla de atributos incluye el área del espejo de agua en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area y el evento de emergencia, que para todos los casos es "inundación”.</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 2011, espejo de agua, área de inundación</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Inunda2012</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda2012.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 2012 en la región de La Mojana. La información en la tabla de atributos incluye el área del espejo de agua en hectáreas, la longitud del perímetro (Shape_Length), el área del polígono (Shape_Area y el evento de emergencia, que para todos los casos es "inundación”.</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 2012, espejo de agua, área de inundación</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>Inunda2020</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda2020.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las áreas de los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 2020 en la región de La Mojana. La información en la tabla de atributos incluye el área de inundación en hectáreas (Shape_Area) y la longitud del perímetro (Shape_Length)</t>
+  </si>
+  <si>
+    <t>En la columna 5 de la tabla de atributos se encuentra la variable área del espejo de agua</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 2020, espejo de agua, área de inundación</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>Inunda2021</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda2021.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las áreas de los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 2021 en la región de La Mojana. La información en la tabla de atributos incluye el área de inundación en hectáreas (Shape_Area) y la longitud del perímetro (Shape_Length)</t>
+  </si>
+  <si>
+    <t>En la columna 3 de la tabla de atributos se encuentra la variable área del espejo de agua en hectáreas</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 2021, espejo de agua, área de inundación</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>Inunda2022</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100/03_OTROS/Inundaci├│n/Inunda2022.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las áreas de los espejos de agua para el evento de inundación causado por el fenómeno de La Niña en el año 2022 en la región de La Mojana. La información en la tabla de atributos incluye el área de inundación en hectáreas (Shape_Area) y la longitud del perímetro (Shape_Length)</t>
+  </si>
+  <si>
+    <t>Inundación, fenómeno de la niña, emergencia, 2022, espejo de agua, área de inundación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,16 +316,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +633,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,43 +698,458 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>